--- a/SRA Documents/General Documents/Stripe Fee logic.xlsx
+++ b/SRA Documents/General Documents/Stripe Fee logic.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Stripe Formula" sheetId="1" r:id="rId1"/>
@@ -427,11 +427,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:13">
